--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_1_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1579927.419096159</v>
+        <v>1573490.894520571</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.653892732</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>419463.0933791244</v>
+        <v>419463.0933791245</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9362710.338723401</v>
+        <v>9362120.359332981</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>283.0103879733649</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G2" t="n">
-        <v>93.64229498979948</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -744,16 +744,16 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
       </c>
       <c r="G3" t="n">
-        <v>69.98930104615282</v>
+        <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -789,7 +789,7 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T3" t="n">
-        <v>175.2139736830806</v>
+        <v>77.35970163560266</v>
       </c>
       <c r="U3" t="n">
         <v>207.9625118881446</v>
@@ -823,7 +823,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -835,10 +835,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>81.5322889930646</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V4" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>155.6053465906475</v>
       </c>
       <c r="X4" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="5">
@@ -899,7 +899,7 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>12.725494085322</v>
       </c>
       <c r="G5" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U5" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>385.5580790162737</v>
+        <v>181.4261959358915</v>
       </c>
       <c r="Y5" t="n">
-        <v>354.2460015443348</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,7 +972,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>150.2783710965517</v>
+        <v>4.756515304257667</v>
       </c>
       <c r="C6" t="n">
         <v>149.1476881355087</v>
@@ -990,10 +990,10 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H6" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>48.89338144820752</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,13 +1020,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>23.6778726709161</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>147.2954742968129</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
         <v>207.9625118881446</v>
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,7 +1072,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>29.95616667213454</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>233.3618613134482</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>194.9632162960284</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1130,25 +1130,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>237.74112346794</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>398.5576896346209</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>9.031127956876844</v>
+        <v>409.0311279568768</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
         <v>136.9537457384598</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>11.56933754416867</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V8" t="n">
-        <v>338.6857412035168</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>108.1045920014104</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1345,19 +1345,19 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>282.5844038405181</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>157.2276889092491</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -1373,13 +1373,13 @@
         <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.508405100767</v>
+        <v>278.5304850060978</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
@@ -1388,7 +1388,7 @@
         <v>249.7639075344423</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372791</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362803</v>
+        <v>93.77010711362801</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U11" t="n">
-        <v>38.16612613234739</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -1436,7 +1436,7 @@
         <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
-        <v>321.447489593873</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="12">
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -1537,16 +1537,16 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442487</v>
+        <v>40.78297506860734</v>
       </c>
       <c r="G13" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>62.01049662925217</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901689</v>
+        <v>51.58366707901688</v>
       </c>
       <c r="S13" t="n">
         <v>129.7096105845442</v>
@@ -1582,7 +1582,7 @@
         <v>162.2835489187163</v>
       </c>
       <c r="U13" t="n">
-        <v>211.5060914457862</v>
+        <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
         <v>192.2412393326521</v>
@@ -1594,7 +1594,7 @@
         <v>160.6612066001148</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>149.8026281767911</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
@@ -1616,10 +1616,10 @@
         <v>327.479377239889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621449</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>249.7639075344423</v>
@@ -1658,16 +1658,16 @@
         <v>93.77010711362803</v>
       </c>
       <c r="T14" t="n">
-        <v>64.70153822988868</v>
+        <v>150.1872840214456</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750155</v>
       </c>
       <c r="V14" t="n">
-        <v>267.6074288087849</v>
+        <v>57.98257224873287</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
         <v>314.4797666215418</v>
@@ -1765,25 +1765,25 @@
         <v>112.2776261096564</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993876</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>82.99846957177849</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>82.9249116246576</v>
+        <v>40.78297506860747</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442487</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>95.493200966817</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338904</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456097</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1816,13 +1816,13 @@
         <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187163</v>
       </c>
       <c r="U16" t="n">
-        <v>19.76753335019544</v>
+        <v>211.5060914457862</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
@@ -1841,13 +1841,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>266.1298289386985</v>
+        <v>266.1298289386986</v>
       </c>
       <c r="C17" t="n">
         <v>258.8837771665143</v>
       </c>
       <c r="D17" t="n">
-        <v>251.2267481799145</v>
+        <v>251.2267481799146</v>
       </c>
       <c r="E17" t="n">
         <v>268.1977203190365</v>
@@ -1859,10 +1859,10 @@
         <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
-        <v>190.4822506135898</v>
+        <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875408</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277553</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059308</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880385</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908626</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092599</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.6432547038051</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357237</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.2115440459645</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.56379621253654</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708475</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369171</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
         <v>103.0018919978638</v>
@@ -2062,13 +2062,13 @@
         <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
-        <v>150.1371287325497</v>
+        <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
         <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593866</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2132,7 +2132,7 @@
         <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059334</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414335</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404347</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007179</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035421</v>
+        <v>74.5117922803542</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219393</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507304</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484031</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723244</v>
       </c>
       <c r="H28" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380448</v>
       </c>
       <c r="I28" t="n">
-        <v>37.77220663497643</v>
+        <v>37.77220663497641</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943233</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
@@ -2810,7 +2810,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I29" t="n">
-        <v>42.96247126414336</v>
+        <v>42.96247126414333</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>70.85714503404348</v>
+        <v>70.85714503404346</v>
       </c>
       <c r="T29" t="n">
         <v>127.274321941861</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>89.36466403007181</v>
+        <v>89.36466403007178</v>
       </c>
       <c r="C31" t="n">
-        <v>74.51179228035421</v>
+        <v>74.51179228035419</v>
       </c>
       <c r="D31" t="n">
-        <v>60.08550749219394</v>
+        <v>60.08550749219391</v>
       </c>
       <c r="E31" t="n">
-        <v>60.01194954507305</v>
+        <v>60.01194954507302</v>
       </c>
       <c r="F31" t="n">
-        <v>61.76140096484032</v>
+        <v>61.76140096484029</v>
       </c>
       <c r="G31" t="n">
-        <v>72.58023888723245</v>
+        <v>72.58023888723243</v>
       </c>
       <c r="H31" t="n">
-        <v>59.9324910538045</v>
+        <v>59.93249105380447</v>
       </c>
       <c r="I31" t="n">
-        <v>37.77220663497643</v>
+        <v>37.7722066349764</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,13 +2995,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>28.67070499943235</v>
+        <v>28.67070499943232</v>
       </c>
       <c r="S31" t="n">
-        <v>106.7966485049597</v>
+        <v>106.7966485049596</v>
       </c>
       <c r="T31" t="n">
-        <v>139.3705868391318</v>
+        <v>139.3705868391317</v>
       </c>
       <c r="U31" t="n">
         <v>188.5931293662016</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542121</v>
+        <v>283.7098784815726</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820279</v>
+        <v>276.4638267093883</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954282</v>
+        <v>268.8067977227886</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345501</v>
+        <v>285.7777698619105</v>
       </c>
       <c r="F32" t="n">
-        <v>306.3890367852512</v>
+        <v>299.9455743126117</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568061</v>
+        <v>296.2512081841665</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291035</v>
+        <v>208.0623001564639</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838904</v>
+        <v>24.17382596574947</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828916</v>
+        <v>52.0684997356496</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161067</v>
+        <v>108.4856766434671</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696766</v>
+        <v>140.415282497037</v>
       </c>
       <c r="V32" t="n">
-        <v>232.349283903446</v>
+        <v>225.9058214308064</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813246</v>
+        <v>254.5091249086851</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162029</v>
+        <v>272.7781592435634</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885341</v>
+        <v>279.7458822158945</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431749</v>
+        <v>70.57601873167792</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459989</v>
+        <v>55.72314698196033</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643962</v>
+        <v>41.29686219380005</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931873</v>
+        <v>41.22330424667916</v>
       </c>
       <c r="F34" t="n">
-        <v>49.416218139086</v>
+        <v>42.97275566644643</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147813</v>
+        <v>53.79159358883857</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822805018</v>
+        <v>41.14384575541061</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922211</v>
+        <v>18.98356133658254</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367802</v>
+        <v>9.882059701038457</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920534</v>
+        <v>88.00800320656577</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133774</v>
+        <v>120.5819415407379</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404473</v>
+        <v>169.8044840678077</v>
       </c>
       <c r="V34" t="n">
-        <v>156.9830944273132</v>
+        <v>150.5396319546737</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480634</v>
+        <v>167.7171782754238</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947759</v>
+        <v>118.9595992221364</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714523</v>
+        <v>108.1010207988127</v>
       </c>
     </row>
     <row r="35">
@@ -3278,13 +3278,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G35" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H35" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I35" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T35" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U35" t="n">
         <v>122.835232954163</v>
@@ -3326,10 +3326,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W35" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X35" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y35" t="n">
         <v>262.1658326730205</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C37" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D37" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E37" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F37" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G37" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H37" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I37" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,25 +3472,25 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T37" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U37" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V37" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W37" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X37" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y37" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="38">
@@ -3752,13 +3752,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H41" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,10 +3788,10 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
@@ -3800,10 +3800,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X41" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y41" t="n">
         <v>262.1658326730205</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H43" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I43" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,25 +3946,25 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T43" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U43" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V43" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W43" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X43" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="44">
@@ -3977,7 +3977,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C44" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D44" t="n">
         <v>251.2267481799146</v>
@@ -3986,16 +3986,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F44" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G44" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H44" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I44" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4028,19 +4028,19 @@
         <v>34.48845019277562</v>
       </c>
       <c r="T44" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U44" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V44" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W44" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X44" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y44" t="n">
         <v>262.1658326730205</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C46" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D46" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E46" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F46" t="n">
-        <v>25.39270612357245</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G46" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H46" t="n">
-        <v>23.56379621253663</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I46" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4183,25 +4183,25 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T46" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U46" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V46" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W46" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X46" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y46" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
   </sheetData>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>554.9782746221505</v>
+        <v>1215.809282799973</v>
       </c>
       <c r="C2" t="n">
-        <v>554.9782746221505</v>
+        <v>1215.809282799973</v>
       </c>
       <c r="D2" t="n">
-        <v>554.9782746221505</v>
+        <v>929.940204038998</v>
       </c>
       <c r="E2" t="n">
-        <v>554.9782746221505</v>
+        <v>929.940204038998</v>
       </c>
       <c r="F2" t="n">
-        <v>138.0838361521282</v>
+        <v>917.0861696093798</v>
       </c>
       <c r="G2" t="n">
-        <v>43.49565939475502</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H2" t="n">
-        <v>43.49565939475502</v>
+        <v>179.8403636638735</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J2" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K2" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L2" t="n">
-        <v>673.8990329354898</v>
+        <v>936.6744981739531</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354898</v>
+        <v>936.6744981739531</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572952</v>
+        <v>1450.27717678364</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.74991746528</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596802</v>
+        <v>1890.316777675969</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="S2" t="n">
-        <v>2136.790056023272</v>
+        <v>2037.169424102439</v>
       </c>
       <c r="T2" t="n">
-        <v>1913.289453582689</v>
+        <v>1813.668821661855</v>
       </c>
       <c r="U2" t="n">
-        <v>1657.536724017288</v>
+        <v>1557.916092096454</v>
       </c>
       <c r="V2" t="n">
-        <v>1315.429914720806</v>
+        <v>1215.809282799973</v>
       </c>
       <c r="W2" t="n">
-        <v>944.4308796890937</v>
+        <v>1215.809282799973</v>
       </c>
       <c r="X2" t="n">
-        <v>554.9782746221505</v>
+        <v>1215.809282799973</v>
       </c>
       <c r="Y2" t="n">
-        <v>554.9782746221505</v>
+        <v>1215.809282799973</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>655.8134179021456</v>
+        <v>655.0354850191686</v>
       </c>
       <c r="C3" t="n">
-        <v>505.1591874622378</v>
+        <v>504.3812545792608</v>
       </c>
       <c r="D3" t="n">
-        <v>375.0702200837181</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="E3" t="n">
-        <v>238.6237291946059</v>
+        <v>374.2922872007412</v>
       </c>
       <c r="F3" t="n">
-        <v>114.1919230777377</v>
+        <v>249.860481083873</v>
       </c>
       <c r="G3" t="n">
-        <v>43.49565939475502</v>
+        <v>129.8006631557374</v>
       </c>
       <c r="H3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="K3" t="n">
-        <v>363.2348054569815</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="L3" t="n">
-        <v>363.2348054569815</v>
+        <v>525.0693326546516</v>
       </c>
       <c r="M3" t="n">
-        <v>480.0174418653883</v>
+        <v>1038.672011264338</v>
       </c>
       <c r="N3" t="n">
-        <v>1018.276226875481</v>
+        <v>1552.274689874025</v>
       </c>
       <c r="O3" t="n">
-        <v>1534.796509466463</v>
+        <v>2065.877368483712</v>
       </c>
       <c r="P3" t="n">
-        <v>1940.41787818286</v>
+        <v>2065.877368483712</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635815</v>
+        <v>2051.245294714981</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535684</v>
+        <v>1916.31461761485</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734592</v>
+        <v>1838.173504851615</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413234</v>
+        <v>1628.110361530257</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784301</v>
+        <v>1405.570359901324</v>
       </c>
       <c r="W3" t="n">
-        <v>1176.231046917588</v>
+        <v>1175.453114034611</v>
       </c>
       <c r="X3" t="n">
-        <v>986.9239692675997</v>
+        <v>986.1460363846227</v>
       </c>
       <c r="Y3" t="n">
-        <v>807.6097523431069</v>
+        <v>806.83181946013</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>362.5271670723727</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="C4" t="n">
-        <v>362.5271670723727</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="D4" t="n">
-        <v>362.5271670723727</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="E4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="F4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="G4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="H4" t="n">
-        <v>206.9683549315752</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="I4" t="n">
-        <v>73.87392956865307</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J4" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="K4" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L4" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M4" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N4" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O4" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P4" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S4" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="T4" t="n">
-        <v>944.9426819363074</v>
+        <v>707.2312174661248</v>
       </c>
       <c r="U4" t="n">
-        <v>862.5868344685654</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="V4" t="n">
-        <v>596.6074892893896</v>
+        <v>421.7924257080257</v>
       </c>
       <c r="W4" t="n">
-        <v>596.6074892893896</v>
+        <v>264.615307939695</v>
       </c>
       <c r="X4" t="n">
-        <v>362.5271670723727</v>
+        <v>264.615307939695</v>
       </c>
       <c r="Y4" t="n">
-        <v>362.5271670723727</v>
+        <v>41.50324675633834</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>458.6475467930354</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="C5" t="n">
-        <v>65.47204529596597</v>
+        <v>852.9611654812857</v>
       </c>
       <c r="D5" t="n">
-        <v>65.47204529596597</v>
+        <v>467.5200366979534</v>
       </c>
       <c r="E5" t="n">
-        <v>65.47204529596597</v>
+        <v>467.5200366979534</v>
       </c>
       <c r="F5" t="n">
-        <v>52.61801086634779</v>
+        <v>454.6660022683352</v>
       </c>
       <c r="G5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="H5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J5" t="n">
-        <v>188.1454323035831</v>
+        <v>186.1530196651665</v>
       </c>
       <c r="K5" t="n">
-        <v>547.1277883310449</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.448080049574</v>
+        <v>545.1353756926283</v>
       </c>
       <c r="M5" t="n">
-        <v>1578.706865059667</v>
+        <v>773.3325661833798</v>
       </c>
       <c r="N5" t="n">
-        <v>2106.518148697129</v>
+        <v>1286.935244793067</v>
       </c>
       <c r="O5" t="n">
-        <v>2174.782969737751</v>
+        <v>1726.974845685395</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="S5" t="n">
-        <v>2174.782969737751</v>
+        <v>1908.648782757968</v>
       </c>
       <c r="T5" t="n">
-        <v>2174.782969737751</v>
+        <v>1685.148180317384</v>
       </c>
       <c r="U5" t="n">
-        <v>1919.030240172349</v>
+        <v>1429.395450751983</v>
       </c>
       <c r="V5" t="n">
-        <v>1576.923430875868</v>
+        <v>1429.395450751983</v>
       </c>
       <c r="W5" t="n">
-        <v>1205.924395844155</v>
+        <v>1429.395450751983</v>
       </c>
       <c r="X5" t="n">
-        <v>816.471790777212</v>
+        <v>1246.136666978355</v>
       </c>
       <c r="Y5" t="n">
-        <v>458.6475467930354</v>
+        <v>1246.136666978355</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>703.1845595088818</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>552.530329068974</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>422.4413616904544</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>285.9948708013421</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>161.5630646844739</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822425</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284343</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J6" t="n">
-        <v>156.6106416144824</v>
+        <v>154.6182289760657</v>
       </c>
       <c r="K6" t="n">
-        <v>156.6106416144824</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L6" t="n">
-        <v>156.6106416144824</v>
+        <v>957.9234609366054</v>
       </c>
       <c r="M6" t="n">
-        <v>694.8694266245757</v>
+        <v>1471.526139546292</v>
       </c>
       <c r="N6" t="n">
-        <v>1233.128211634669</v>
+        <v>1985.128818155979</v>
       </c>
       <c r="O6" t="n">
-        <v>1749.64849422565</v>
+        <v>1985.128818155979</v>
       </c>
       <c r="P6" t="n">
-        <v>2155.269862942047</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737751</v>
+        <v>2075.162337816917</v>
       </c>
       <c r="R6" t="n">
-        <v>2174.782969737751</v>
+        <v>2051.245294714981</v>
       </c>
       <c r="S6" t="n">
-        <v>2174.782969737751</v>
+        <v>1916.31461761485</v>
       </c>
       <c r="T6" t="n">
-        <v>2025.999662367233</v>
+        <v>1739.330805813759</v>
       </c>
       <c r="U6" t="n">
-        <v>1815.936519045874</v>
+        <v>1529.2676624924</v>
       </c>
       <c r="V6" t="n">
-        <v>1593.396517416941</v>
+        <v>1306.727660863467</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996754</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>887.3033373467661</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>707.9891204222733</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>556.9185794275554</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="C7" t="n">
-        <v>386.7134614935446</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="D7" t="n">
-        <v>231.0803483960594</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="E7" t="n">
-        <v>231.0803483960594</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="F7" t="n">
-        <v>73.75441360903233</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="G7" t="n">
-        <v>73.75441360903233</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="H7" t="n">
-        <v>73.75441360903233</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475502</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046969</v>
+        <v>123.3382878662802</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784967</v>
+        <v>287.46592774008</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167607</v>
+        <v>473.757506078344</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>656.9471401095532</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>819.6519071512612</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>939.5280729278397</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="R7" t="n">
-        <v>944.9426819363074</v>
+        <v>942.9502692978907</v>
       </c>
       <c r="S7" t="n">
-        <v>742.1265981188567</v>
+        <v>740.13418548044</v>
       </c>
       <c r="T7" t="n">
-        <v>742.1265981188567</v>
+        <v>504.4151336486741</v>
       </c>
       <c r="U7" t="n">
-        <v>742.1265981188567</v>
+        <v>307.4825919355141</v>
       </c>
       <c r="V7" t="n">
-        <v>742.1265981188567</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="W7" t="n">
-        <v>742.1265981188567</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="X7" t="n">
-        <v>742.1265981188567</v>
+        <v>41.50324675633834</v>
       </c>
       <c r="Y7" t="n">
-        <v>742.1265981188567</v>
+        <v>41.50324675633834</v>
       </c>
     </row>
     <row r="8">
@@ -4778,22 +4778,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>995.6511265770774</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="C8" t="n">
-        <v>995.6511265770774</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="D8" t="n">
-        <v>610.2099977937452</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="E8" t="n">
-        <v>207.6264729102897</v>
+        <v>935.7499273842031</v>
       </c>
       <c r="F8" t="n">
-        <v>194.7724384806716</v>
+        <v>922.895892954585</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>509.7331374425881</v>
       </c>
       <c r="H8" t="n">
         <v>185.6500870090788</v>
@@ -4808,16 +4808,16 @@
         <v>406.2953261290054</v>
       </c>
       <c r="L8" t="n">
-        <v>899.6156178475343</v>
+        <v>406.2953261290054</v>
       </c>
       <c r="M8" t="n">
-        <v>1445.616517892115</v>
+        <v>952.2962261735861</v>
       </c>
       <c r="N8" t="n">
-        <v>1973.427801529577</v>
+        <v>1480.107509811048</v>
       </c>
       <c r="O8" t="n">
-        <v>1973.427801529577</v>
+        <v>1832.61545280471</v>
       </c>
       <c r="P8" t="n">
         <v>2180.802944936232</v>
@@ -4829,25 +4829,25 @@
         <v>2365.64850507718</v>
       </c>
       <c r="S8" t="n">
-        <v>2365.64850507718</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="T8" t="n">
-        <v>2353.962305537616</v>
+        <v>2199.134950018231</v>
       </c>
       <c r="U8" t="n">
-        <v>2098.209575972215</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="V8" t="n">
-        <v>1756.102766675733</v>
+        <v>1943.38222045283</v>
       </c>
       <c r="W8" t="n">
-        <v>1385.103731644021</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="X8" t="n">
-        <v>995.6511265770774</v>
+        <v>1572.383185421117</v>
       </c>
       <c r="Y8" t="n">
-        <v>995.6511265770774</v>
+        <v>1175.892476341718</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>194.5661265746817</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="L9" t="n">
-        <v>678.132212472995</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="M9" t="n">
-        <v>1263.630217479597</v>
+        <v>643.9940382195844</v>
       </c>
       <c r="N9" t="n">
-        <v>1849.128222486199</v>
+        <v>1229.492043226187</v>
       </c>
       <c r="O9" t="n">
-        <v>2365.64850507718</v>
+        <v>1746.012325817167</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="C10" t="n">
-        <v>839.5634350659138</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="D10" t="n">
-        <v>683.9303219684286</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="E10" t="n">
-        <v>528.3715098276311</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="F10" t="n">
-        <v>371.0455750406041</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="G10" t="n">
-        <v>202.7915211400496</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H10" t="n">
         <v>47.31297010154361</v>
@@ -4993,19 +4993,19 @@
         <v>948.7599926430961</v>
       </c>
       <c r="U10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="V10" t="n">
-        <v>948.7599926430961</v>
+        <v>663.3212008849971</v>
       </c>
       <c r="W10" t="n">
-        <v>948.7599926430961</v>
+        <v>504.5053535019172</v>
       </c>
       <c r="X10" t="n">
-        <v>948.7599926430961</v>
+        <v>270.4250312849002</v>
       </c>
       <c r="Y10" t="n">
-        <v>948.7599926430961</v>
+        <v>47.31297010154361</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1702.435468430418</v>
+        <v>1589.282783693955</v>
       </c>
       <c r="C11" t="n">
-        <v>1381.056242079542</v>
+        <v>1267.903557343079</v>
       </c>
       <c r="D11" t="n">
-        <v>1067.411388442404</v>
+        <v>986.5596330944959</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>655.7723833572343</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185754</v>
+        <v>655.7723833572343</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527724</v>
+        <v>314.4059029914313</v>
       </c>
       <c r="H11" t="n">
-        <v>128.6599694654569</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="I11" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411573</v>
       </c>
       <c r="J11" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129438</v>
       </c>
       <c r="K11" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404057</v>
       </c>
       <c r="L11" t="n">
         <v>1059.071548358934</v>
@@ -5069,22 +5069,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T11" t="n">
-        <v>3011.239105293021</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="U11" t="n">
-        <v>2972.687462735094</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2972.687462735094</v>
+        <v>2859.534777998631</v>
       </c>
       <c r="W11" t="n">
-        <v>2673.484702849575</v>
+        <v>2560.332018113113</v>
       </c>
       <c r="X11" t="n">
-        <v>2355.828372928826</v>
+        <v>2242.675688192363</v>
       </c>
       <c r="Y11" t="n">
-        <v>2031.133938995621</v>
+        <v>1917.981254259159</v>
       </c>
     </row>
     <row r="12">
@@ -5118,19 +5118,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J12" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L12" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M12" t="n">
-        <v>1493.196009291336</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N12" t="n">
-        <v>1493.196009291336</v>
+        <v>1942.349816659396</v>
       </c>
       <c r="O12" t="n">
         <v>1974.833293963354</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>368.0415815981102</v>
+        <v>103.3140520158404</v>
       </c>
       <c r="C13" t="n">
-        <v>368.0415815981102</v>
+        <v>103.3140520158404</v>
       </c>
       <c r="D13" t="n">
-        <v>368.0415815981102</v>
+        <v>103.3140520158404</v>
       </c>
       <c r="E13" t="n">
-        <v>368.0415815981102</v>
+        <v>103.3140520158404</v>
       </c>
       <c r="F13" t="n">
-        <v>282.5119219572771</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G13" t="n">
-        <v>186.0541432029167</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J13" t="n">
-        <v>102.7129143774626</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K13" t="n">
         <v>254.9154847581891</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027734</v>
+        <v>489.4106539027735</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118221</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
-        <v>999.6269248138159</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O13" t="n">
         <v>1232.699221126309</v>
@@ -5224,25 +5224,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922021</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.685342236449</v>
+        <v>1149.68534223645</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245436</v>
+        <v>936.0428256245443</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915617</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W13" t="n">
-        <v>530.3256286689332</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X13" t="n">
-        <v>368.0415815981102</v>
+        <v>368.0415815981106</v>
       </c>
       <c r="Y13" t="n">
-        <v>368.0415815981102</v>
+        <v>216.7257955609478</v>
       </c>
     </row>
     <row r="14">
@@ -5252,43 +5252,43 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2033.222718167679</v>
+        <v>1346.758074478048</v>
       </c>
       <c r="C14" t="n">
-        <v>1711.843491816804</v>
+        <v>1025.378848127172</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179666</v>
+        <v>711.733994490034</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185756</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527726</v>
+        <v>380.9467447527724</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654569</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L14" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M14" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N14" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O14" t="n">
         <v>2572.923332933306</v>
@@ -5297,31 +5297,31 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R14" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S14" t="n">
-        <v>3011.239105293021</v>
+        <v>3011.239105293022</v>
       </c>
       <c r="T14" t="n">
-        <v>2945.884016171921</v>
+        <v>2859.534777998632</v>
       </c>
       <c r="U14" t="n">
-        <v>2945.884016171921</v>
+        <v>2675.578323579424</v>
       </c>
       <c r="V14" t="n">
-        <v>2675.573482021633</v>
+        <v>2617.010068782724</v>
       </c>
       <c r="W14" t="n">
-        <v>2675.573482021633</v>
+        <v>2317.807308897205</v>
       </c>
       <c r="X14" t="n">
-        <v>2357.917152100884</v>
+        <v>2000.150978976456</v>
       </c>
       <c r="Y14" t="n">
-        <v>2033.222718167679</v>
+        <v>1675.456545043251</v>
       </c>
     </row>
     <row r="15">
@@ -5355,13 +5355,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M15" t="n">
         <v>568.1699486069232</v>
@@ -5410,46 +5410,46 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>655.0952099420616</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="C16" t="n">
-        <v>556.6863671542446</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="D16" t="n">
-        <v>472.8495292029534</v>
+        <v>103.3140520158402</v>
       </c>
       <c r="E16" t="n">
-        <v>389.0869922083498</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="F16" t="n">
-        <v>303.5573325675166</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="G16" t="n">
-        <v>207.099553813156</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H16" t="n">
-        <v>123.4172779208438</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J16" t="n">
-        <v>102.7129143774625</v>
+        <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.915484758189</v>
+        <v>254.9154847581891</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027733</v>
+        <v>489.4106539027734</v>
       </c>
       <c r="M16" t="n">
-        <v>746.069761511822</v>
+        <v>746.0697615118221</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138158</v>
+        <v>999.6269248138159</v>
       </c>
       <c r="O16" t="n">
-        <v>1232.699221126308</v>
+        <v>1232.699221126309</v>
       </c>
       <c r="P16" t="n">
         <v>1422.942916173672</v>
@@ -5461,25 +5461,25 @@
         <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
-        <v>1313.608118922022</v>
+        <v>1313.608118922021</v>
       </c>
       <c r="T16" t="n">
-        <v>1313.608118922022</v>
+        <v>1149.685342236449</v>
       </c>
       <c r="U16" t="n">
-        <v>1293.640913517784</v>
+        <v>936.0428256245441</v>
       </c>
       <c r="V16" t="n">
-        <v>1293.640913517784</v>
+        <v>741.8597555915621</v>
       </c>
       <c r="W16" t="n">
-        <v>1082.106786595155</v>
+        <v>530.3256286689336</v>
       </c>
       <c r="X16" t="n">
-        <v>919.8227395243318</v>
+        <v>368.0415815981106</v>
       </c>
       <c r="Y16" t="n">
-        <v>768.5069534871691</v>
+        <v>216.7257955609477</v>
       </c>
     </row>
     <row r="17">
@@ -5498,16 +5498,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975454</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F17" t="n">
         <v>542.6718405099314</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H17" t="n">
-        <v>68.7795079292422</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5537,10 +5537,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R17" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5549,13 +5549,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V17" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W17" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y17" t="n">
         <v>1882.877496443165</v>
@@ -5592,16 +5592,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>62.11912770411553</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>545.6852136024288</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="M18" t="n">
-        <v>1173.45686322911</v>
+        <v>802.5350401618138</v>
       </c>
       <c r="N18" t="n">
         <v>1458.313011372373</v>
@@ -5647,49 +5647,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885592</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369569</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218802</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634912</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588726</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072667</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.53681638462914</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J19" t="n">
-        <v>67.69877031229859</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K19" t="n">
-        <v>149.5338114222405</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L19" t="n">
-        <v>313.6614512960402</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M19" t="n">
-        <v>499.9530296343043</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N19" t="n">
-        <v>683.1426636655135</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O19" t="n">
-        <v>845.8474307072216</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>965.7235964838002</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
         <v>1098.20216247628</v>
@@ -5701,22 +5701,22 @@
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.0205001918803</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161897</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194225</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330086</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984002</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.463261197452</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>827.8895422975452</v>
       </c>
       <c r="F20" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G20" t="n">
-        <v>261.1858216803431</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
         <v>68.77950792924223</v>
@@ -5832,13 +5832,13 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K21" t="n">
-        <v>494.9732559860694</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L21" t="n">
-        <v>978.5393418843826</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M21" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N21" t="n">
         <v>1223.947919817482</v>
@@ -5908,28 +5908,28 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K22" t="n">
-        <v>270.9691711012525</v>
+        <v>149.5338114222412</v>
       </c>
       <c r="L22" t="n">
-        <v>435.0968109750523</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133163</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445255</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O22" t="n">
-        <v>967.2827903862335</v>
+        <v>974.9038003296507</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162812</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R22" t="n">
         <v>1098.20216247628</v>
@@ -5966,7 +5966,7 @@
         <v>1614.059487414178</v>
       </c>
       <c r="C23" t="n">
-        <v>1352.560722599517</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D23" t="n">
         <v>1098.796330498593</v>
@@ -5981,7 +5981,7 @@
         <v>261.1858216803435</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924224</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I23" t="n">
         <v>62.11912770411553</v>
@@ -6011,10 +6011,10 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T23" t="n">
         <v>2979.295701071061</v>
@@ -6023,13 +6023,13 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y23" t="n">
         <v>1882.877496443166</v>
@@ -6066,16 +6066,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="M24" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N24" t="n">
         <v>1223.947919817482</v>
@@ -6139,7 +6139,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462918</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I25" t="n">
         <v>62.11912770411553</v>
@@ -6148,25 +6148,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
-        <v>143.9541688140574</v>
+        <v>270.9691711012525</v>
       </c>
       <c r="L25" t="n">
-        <v>308.0818086878572</v>
+        <v>435.0968109750523</v>
       </c>
       <c r="M25" t="n">
-        <v>623.4297566485498</v>
+        <v>621.3883893133163</v>
       </c>
       <c r="N25" t="n">
-        <v>806.6193906797589</v>
+        <v>804.5780233445255</v>
       </c>
       <c r="O25" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P25" t="n">
-        <v>1089.200323498045</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R25" t="n">
         <v>1098.20216247628</v>
@@ -6206,22 +6206,22 @@
         <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E26" t="n">
-        <v>986.0794951218606</v>
+        <v>986.07949512186</v>
       </c>
       <c r="F26" t="n">
-        <v>664.1257379390267</v>
+        <v>664.1257379390261</v>
       </c>
       <c r="G26" t="n">
-        <v>345.9036637142183</v>
+        <v>345.9036637142176</v>
       </c>
       <c r="H26" t="n">
         <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
         <v>311.0659935859517</v>
@@ -6230,34 +6230,34 @@
         <v>763.0997113429868</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1286.389518343938</v>
       </c>
       <c r="M26" t="n">
-        <v>1988.523626565243</v>
+        <v>1925.441780118092</v>
       </c>
       <c r="N26" t="n">
-        <v>2609.386271932278</v>
+        <v>2546.304425485127</v>
       </c>
       <c r="O26" t="n">
-        <v>3079.39538810703</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P26" t="n">
-        <v>3427.582880238552</v>
+        <v>3427.582880238551</v>
       </c>
       <c r="Q26" t="n">
         <v>3612.4284403795</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377514</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605753</v>
+        <v>3596.670073605752</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452358</v>
+        <v>3468.110152452357</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174144</v>
       </c>
       <c r="V26" t="n">
         <v>3060.131976164851</v>
@@ -6269,7 +6269,7 @@
         <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848361</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
-        <v>73.36485894755027</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K27" t="n">
-        <v>393.1040050097767</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="L27" t="n">
-        <v>876.6700909080899</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="M27" t="n">
-        <v>876.6700909080899</v>
+        <v>814.2514907939589</v>
       </c>
       <c r="N27" t="n">
-        <v>1235.193651060917</v>
+        <v>1470.029462004518</v>
       </c>
       <c r="O27" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P27" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q27" t="n">
         <v>2391.700393923186</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>504.3300981985352</v>
+        <v>504.3300981985353</v>
       </c>
       <c r="C28" t="n">
-        <v>429.0656615517127</v>
+        <v>429.0656615517129</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414158</v>
+        <v>368.373229741416</v>
       </c>
       <c r="E28" t="n">
-        <v>307.7550988878066</v>
+        <v>307.7550988878069</v>
       </c>
       <c r="F28" t="n">
-        <v>245.3698453879679</v>
+        <v>245.3698453879682</v>
       </c>
       <c r="G28" t="n">
-        <v>172.0564727746018</v>
+        <v>172.0564727746021</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.5186030232844</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755027</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
         <v>136.6424780796862</v>
@@ -6388,10 +6388,10 @@
         <v>311.5288809192008</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225735</v>
+        <v>568.7078825225738</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904109</v>
+        <v>848.050822590411</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6409,25 +6409,25 @@
         <v>1660.488724648017</v>
       </c>
       <c r="S28" t="n">
-        <v>1552.613322117754</v>
+        <v>1552.613322117755</v>
       </c>
       <c r="T28" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U28" t="n">
-        <v>1221.336841102266</v>
+        <v>1221.336841102267</v>
       </c>
       <c r="V28" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W28" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286452</v>
       </c>
       <c r="X28" t="n">
-        <v>722.7688154988164</v>
+        <v>722.7688154988166</v>
       </c>
       <c r="Y28" t="n">
-        <v>594.597435602648</v>
+        <v>594.5974356026483</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424151</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.22278621427</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218597</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390258</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142174</v>
       </c>
       <c r="H29" t="n">
-        <v>116.7612945678971</v>
+        <v>116.761294567897</v>
       </c>
       <c r="I29" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J29" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563783</v>
       </c>
       <c r="K29" t="n">
-        <v>763.0997113429868</v>
+        <v>606.9665031662622</v>
       </c>
       <c r="L29" t="n">
-        <v>1349.471364791089</v>
+        <v>1193.338156614364</v>
       </c>
       <c r="M29" t="n">
-        <v>1988.523626565243</v>
+        <v>1832.390418388518</v>
       </c>
       <c r="N29" t="n">
-        <v>2516.334910202705</v>
+        <v>2453.253063755554</v>
       </c>
       <c r="O29" t="n">
-        <v>3049.425872824607</v>
+        <v>2986.344026377456</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3334.531518508977</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3612.428440379499</v>
       </c>
       <c r="R29" t="n">
-        <v>3668.242947377513</v>
+        <v>3668.242947377512</v>
       </c>
       <c r="S29" t="n">
-        <v>3596.670073605752</v>
+        <v>3596.670073605751</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174145</v>
+        <v>3307.298104174142</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.131976164849</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420325</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.56169864057</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848362</v>
+        <v>2188.011670848359</v>
       </c>
     </row>
     <row r="30">
@@ -6534,31 +6534,31 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H30" t="n">
-        <v>122.7521129356387</v>
+        <v>122.7521129356386</v>
       </c>
       <c r="I30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="K30" t="n">
         <v>393.1040050097767</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>393.1040050097767</v>
       </c>
       <c r="M30" t="n">
-        <v>876.6700909080899</v>
+        <v>813.7807714052482</v>
       </c>
       <c r="N30" t="n">
-        <v>1235.193651060917</v>
+        <v>1469.558742615807</v>
       </c>
       <c r="O30" t="n">
-        <v>1751.713933651898</v>
+        <v>1986.079025206788</v>
       </c>
       <c r="P30" t="n">
-        <v>2157.335302368295</v>
+        <v>2391.700393923186</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.330098198535</v>
+        <v>504.3300981985351</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517126</v>
+        <v>429.065661551713</v>
       </c>
       <c r="D31" t="n">
-        <v>368.3732297414157</v>
+        <v>368.3732297414161</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878065</v>
+        <v>307.7550988878066</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879678</v>
+        <v>245.369845387968</v>
       </c>
       <c r="G31" t="n">
-        <v>172.0564727746017</v>
+        <v>172.056472774602</v>
       </c>
       <c r="H31" t="n">
-        <v>111.518603023284</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
-        <v>73.36485894755026</v>
+        <v>73.36485894755025</v>
       </c>
       <c r="J31" t="n">
         <v>136.6424780796862</v>
       </c>
       <c r="K31" t="n">
-        <v>311.5288809192015</v>
+        <v>311.5288809192012</v>
       </c>
       <c r="L31" t="n">
-        <v>568.7078825225744</v>
+        <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904118</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
         <v>1124.291818351194</v>
       </c>
       <c r="O31" t="n">
-        <v>1380.047947122476</v>
+        <v>1380.047947122475</v>
       </c>
       <c r="P31" t="n">
-        <v>1592.975474628628</v>
+        <v>1592.975474628627</v>
       </c>
       <c r="Q31" t="n">
-        <v>1689.449032728252</v>
+        <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
         <v>1660.488724648017</v>
       </c>
       <c r="S31" t="n">
-        <v>1552.613322117755</v>
+        <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
         <v>1411.834951573177</v>
       </c>
       <c r="U31" t="n">
-        <v>1221.336841102267</v>
+        <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
         <v>1050.298177210279</v>
       </c>
       <c r="W31" t="n">
-        <v>861.9084564286452</v>
+        <v>861.908456428645</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988166</v>
+        <v>722.7688154988164</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026483</v>
+        <v>594.597435602648</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.351124222131</v>
+        <v>1743.798875918587</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654426</v>
+        <v>1464.542485303043</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800459</v>
+        <v>1193.020467401236</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463675</v>
+        <v>904.3560533993059</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057096</v>
+        <v>601.3807258108093</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230771</v>
+        <v>302.1370811803381</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189324</v>
+        <v>91.97314162835454</v>
       </c>
       <c r="I32" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234498</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495898</v>
+        <v>212.2049085111731</v>
       </c>
       <c r="K32" t="n">
-        <v>678.4527699041216</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1171.77306162265</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1803.184144513243</v>
+        <v>1610.508456301744</v>
       </c>
       <c r="N32" t="n">
-        <v>2330.995428150705</v>
+        <v>2138.319739939207</v>
       </c>
       <c r="O32" t="n">
-        <v>2771.035029043033</v>
+        <v>2690.011461406518</v>
       </c>
       <c r="P32" t="n">
-        <v>3119.222521174555</v>
+        <v>3118.495954132877</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042574</v>
+        <v>3303.341514273826</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.377412038084</v>
+        <v>3377.756780117249</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908498</v>
+        <v>3325.162335939825</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397279</v>
+        <v>3215.580844380767</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.842213761242</v>
+        <v>3073.747225696892</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394125</v>
+        <v>2845.559527281936</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291777</v>
+        <v>2588.479603131749</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154198</v>
+        <v>2312.946108946331</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004163</v>
+        <v>2030.374510748458</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423759</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024681</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239485</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732529</v>
+        <v>449.7314300348362</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563847</v>
+        <v>325.299623917968</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898325</v>
       </c>
       <c r="H33" t="n">
-        <v>118.9348022288501</v>
+        <v>116.9423895904334</v>
       </c>
       <c r="I33" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234498</v>
       </c>
       <c r="J33" t="n">
-        <v>69.54754824076167</v>
+        <v>180.6701178220724</v>
       </c>
       <c r="K33" t="n">
-        <v>389.2866943029881</v>
+        <v>500.4092638842988</v>
       </c>
       <c r="L33" t="n">
-        <v>872.8527802013014</v>
+        <v>500.4092638842988</v>
       </c>
       <c r="M33" t="n">
-        <v>872.8527802013014</v>
+        <v>1128.18091351098</v>
       </c>
       <c r="N33" t="n">
-        <v>1231.376340354128</v>
+        <v>1463.749019270602</v>
       </c>
       <c r="O33" t="n">
-        <v>1747.89662294511</v>
+        <v>1980.269301861583</v>
       </c>
       <c r="P33" t="n">
-        <v>2153.517991661507</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476045</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375914</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253464</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624531</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757818</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965139</v>
+        <v>365.6713676929689</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918675</v>
+        <v>309.3853606404838</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237467</v>
+        <v>267.6713584245241</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123136</v>
+        <v>226.0316571652522</v>
       </c>
       <c r="F34" t="n">
-        <v>204.142889754651</v>
+        <v>182.6248332597507</v>
       </c>
       <c r="G34" t="n">
-        <v>143.299398783461</v>
+        <v>128.2898902407219</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431936</v>
+        <v>86.73045008374149</v>
       </c>
       <c r="I34" t="n">
-        <v>69.54754824076167</v>
+        <v>67.55513560234498</v>
       </c>
       <c r="J34" t="n">
-        <v>145.0468983703943</v>
+        <v>149.4335135798908</v>
       </c>
       <c r="K34" t="n">
-        <v>332.1550322074062</v>
+        <v>231.2685546898326</v>
       </c>
       <c r="L34" t="n">
-        <v>601.5557648082761</v>
+        <v>395.3961945636324</v>
       </c>
       <c r="M34" t="n">
-        <v>893.1204358736102</v>
+        <v>693.3398934768798</v>
       </c>
       <c r="N34" t="n">
-        <v>1181.58316263189</v>
+        <v>876.5295275080889</v>
       </c>
       <c r="O34" t="n">
-        <v>1362.815253600016</v>
+        <v>1145.033953152037</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376595</v>
+        <v>1376.562239503599</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746646</v>
+        <v>1379.98443587365</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308587</v>
+        <v>1370.002557387753</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420501</v>
+        <v>1281.105584451828</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.9091795181</v>
+        <v>1159.305643501587</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689365</v>
+        <v>987.7859626250139</v>
       </c>
       <c r="V34" t="n">
-        <v>909.3121684395535</v>
+        <v>835.7257283273638</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000955</v>
+        <v>666.314437140067</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012443</v>
+        <v>546.1532258045756</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.0210717584508</v>
+        <v>436.9602755027446</v>
       </c>
     </row>
     <row r="35">
@@ -6920,16 +6920,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6959,7 +6959,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
         <v>3071.119566829236</v>
@@ -6971,7 +6971,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V35" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
         <v>2405.467337224691</v>
@@ -7014,22 +7014,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J36" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K36" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>865.4243596646552</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="M36" t="n">
-        <v>1223.947919817482</v>
+        <v>973.7913173233209</v>
       </c>
       <c r="N36" t="n">
-        <v>1223.947919817482</v>
+        <v>1629.56928853388</v>
       </c>
       <c r="O36" t="n">
-        <v>1740.468202408463</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="P36" t="n">
         <v>2146.089571124861</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C37" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D37" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E37" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F37" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G37" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J37" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>407.3644357128482</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M37" t="n">
-        <v>593.6560140511123</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N37" t="n">
-        <v>804.5780233445259</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O37" t="n">
-        <v>967.282790386234</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P37" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q37" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R37" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S37" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T37" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U37" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V37" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W37" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X37" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y37" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="38">
@@ -7148,25 +7148,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1614.059487414176</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C38" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D38" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E38" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F38" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I38" t="n">
         <v>62.11912770411553</v>
@@ -7175,16 +7175,16 @@
         <v>206.7689006129436</v>
       </c>
       <c r="K38" t="n">
-        <v>565.7512566404055</v>
+        <v>565.7512566404064</v>
       </c>
       <c r="L38" t="n">
-        <v>1059.071548358934</v>
+        <v>1059.071548358935</v>
       </c>
       <c r="M38" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N38" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O38" t="n">
         <v>2572.923332933306</v>
@@ -7193,10 +7193,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R38" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S38" t="n">
         <v>3071.119566829235</v>
@@ -7205,19 +7205,19 @@
         <v>2979.295701071061</v>
       </c>
       <c r="U38" t="n">
-        <v>2855.219708188067</v>
+        <v>2855.219708188068</v>
       </c>
       <c r="V38" t="n">
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
-        <v>2147.691468840155</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,25 +7251,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>865.4243596646552</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N39" t="n">
-        <v>1223.947919817482</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O39" t="n">
-        <v>1740.468202408463</v>
+        <v>2122.831274102045</v>
       </c>
       <c r="P39" t="n">
-        <v>2146.089571124861</v>
+        <v>2380.454662679751</v>
       </c>
       <c r="Q39" t="n">
         <v>2380.454662679751</v>
@@ -7324,7 +7324,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H40" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I40" t="n">
         <v>62.11912770411553</v>
@@ -7333,22 +7333,22 @@
         <v>161.4017547291066</v>
       </c>
       <c r="K40" t="n">
-        <v>270.9691711012525</v>
+        <v>243.2367958390485</v>
       </c>
       <c r="L40" t="n">
-        <v>435.0968109750523</v>
+        <v>407.3644357128483</v>
       </c>
       <c r="M40" t="n">
-        <v>621.3883893133163</v>
+        <v>593.6560140511123</v>
       </c>
       <c r="N40" t="n">
-        <v>804.5780233445255</v>
+        <v>776.8456480823215</v>
       </c>
       <c r="O40" t="n">
-        <v>967.2827903862335</v>
+        <v>939.5504151240295</v>
       </c>
       <c r="P40" t="n">
-        <v>1087.158956162812</v>
+        <v>1059.426580900608</v>
       </c>
       <c r="Q40" t="n">
         <v>1090.581152532863</v>
@@ -7394,16 +7394,16 @@
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975452</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099314</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G41" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H41" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I41" t="n">
         <v>62.11912770411553</v>
@@ -7433,7 +7433,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
         <v>3071.119566829236</v>
@@ -7445,7 +7445,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W41" t="n">
         <v>2405.467337224691</v>
@@ -7454,7 +7454,7 @@
         <v>2147.691468840156</v>
       </c>
       <c r="Y41" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="42">
@@ -7491,13 +7491,13 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K42" t="n">
-        <v>381.858273766342</v>
+        <v>84.60386270860994</v>
       </c>
       <c r="L42" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="M42" t="n">
-        <v>865.4243596646552</v>
+        <v>568.1699486069232</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H43" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I43" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J43" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K43" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L43" t="n">
-        <v>407.3644357128482</v>
+        <v>437.1381783102856</v>
       </c>
       <c r="M43" t="n">
-        <v>629.009399256734</v>
+        <v>623.4297566485496</v>
       </c>
       <c r="N43" t="n">
-        <v>812.1990332879432</v>
+        <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>974.9038003296512</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P43" t="n">
-        <v>1094.77996610623</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q43" t="n">
-        <v>1098.202162476281</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R43" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S43" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X43" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="44">
@@ -7640,7 +7640,7 @@
         <v>261.185821680343</v>
       </c>
       <c r="H44" t="n">
-        <v>68.7795079292423</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I44" t="n">
         <v>62.11912770411553</v>
@@ -7670,7 +7670,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="R44" t="n">
-        <v>3105.956385205777</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="S44" t="n">
         <v>3071.119566829236</v>
@@ -7682,7 +7682,7 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V44" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W44" t="n">
         <v>2405.467337224691</v>
@@ -7725,22 +7725,22 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J45" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K45" t="n">
-        <v>381.858273766342</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="L45" t="n">
-        <v>865.4243596646552</v>
+        <v>658.8001958221562</v>
       </c>
       <c r="M45" t="n">
-        <v>865.4243596646552</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="N45" t="n">
-        <v>1223.947919817482</v>
+        <v>1286.571845448837</v>
       </c>
       <c r="O45" t="n">
-        <v>1740.468202408463</v>
+        <v>1803.092128039818</v>
       </c>
       <c r="P45" t="n">
         <v>2146.089571124861</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C46" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D46" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E46" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F46" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G46" t="n">
-        <v>87.33863074072684</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H46" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I46" t="n">
         <v>62.11912770411553</v>
@@ -7816,40 +7816,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
-        <v>806.6193906797589</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O46" t="n">
-        <v>969.3241577214669</v>
+        <v>967.2827903862335</v>
       </c>
       <c r="P46" t="n">
-        <v>1094.77996610623</v>
+        <v>1087.158956162812</v>
       </c>
       <c r="Q46" t="n">
-        <v>1098.202162476281</v>
+        <v>1090.581152532863</v>
       </c>
       <c r="R46" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S46" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T46" t="n">
-        <v>923.0205001918814</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U46" t="n">
-        <v>769.2584451161907</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V46" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W46" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X46" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y46" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
   </sheetData>
@@ -7982,19 +7982,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L2" t="n">
-        <v>281.2999319572037</v>
+        <v>548.742232842941</v>
       </c>
       <c r="M2" t="n">
         <v>149.7250515977273</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920134</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
       </c>
       <c r="P2" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q2" t="n">
         <v>331.2113854294513</v>
@@ -8058,25 +8058,25 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K3" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L3" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>210.3493810477026</v>
+        <v>611.1777065035411</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083959</v>
       </c>
       <c r="O3" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431182</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>327.7205688679246</v>
+        <v>100.3669100581413</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8219,19 +8219,19 @@
         <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M5" t="n">
-        <v>693.4207940321648</v>
+        <v>380.227264214648</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920134</v>
       </c>
       <c r="O5" t="n">
-        <v>218.5182021115928</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P5" t="n">
-        <v>150.3014472409252</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q5" t="n">
         <v>144.4986984183922</v>
@@ -8295,25 +8295,25 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K6" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L6" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837495</v>
+        <v>611.1777065035411</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886043</v>
+        <v>604.1626973083959</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P6" t="n">
-        <v>496.801919078302</v>
+        <v>178.0263139717773</v>
       </c>
       <c r="Q6" t="n">
-        <v>110.6983620404631</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8456,7 +8456,7 @@
         <v>505.666843611017</v>
       </c>
       <c r="L8" t="n">
-        <v>651.5514946987026</v>
+        <v>153.2481697304917</v>
       </c>
       <c r="M8" t="n">
         <v>701.2411122488187</v>
@@ -8465,10 +8465,10 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>505.6324667106232</v>
       </c>
       <c r="P8" t="n">
-        <v>359.7712890658291</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
         <v>331.2113854294513</v>
@@ -8529,16 +8529,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
-        <v>238.3374974274122</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L9" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
-        <v>683.7992483186069</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N9" t="n">
         <v>676.7842391234617</v>
@@ -8547,10 +8547,10 @@
         <v>614.4252180716981</v>
       </c>
       <c r="P9" t="n">
-        <v>87.08336481931465</v>
+        <v>476.2460796729735</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8766,10 +8766,10 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J12" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L12" t="n">
         <v>578.5109386733963</v>
@@ -8778,10 +8778,10 @@
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O12" t="n">
-        <v>579.1898666384017</v>
+        <v>125.4991521252098</v>
       </c>
       <c r="P12" t="n">
         <v>496.801919078302</v>
@@ -8927,7 +8927,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K14" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110179</v>
       </c>
       <c r="L14" t="n">
         <v>651.5514946987026</v>
@@ -9003,16 +9003,16 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L15" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M15" t="n">
-        <v>115.0989755892052</v>
+        <v>166.3231752016895</v>
       </c>
       <c r="N15" t="n">
         <v>747.7741039759435</v>
@@ -9240,19 +9240,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L18" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>403.0555909137002</v>
       </c>
       <c r="N18" t="n">
-        <v>373.1055958271594</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O18" t="n">
         <v>614.4252180716981</v>
@@ -9407,7 +9407,7 @@
         <v>651.5514946987026</v>
       </c>
       <c r="M20" t="n">
-        <v>701.2411122488187</v>
+        <v>701.2411122488188</v>
       </c>
       <c r="N20" t="n">
         <v>682.2612020826953</v>
@@ -9480,16 +9480,16 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K21" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L21" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M21" t="n">
-        <v>92.38712204931191</v>
+        <v>663.2434089132776</v>
       </c>
       <c r="N21" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O21" t="n">
         <v>614.4252180716981</v>
@@ -9714,19 +9714,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L24" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M24" t="n">
-        <v>92.38712204931191</v>
+        <v>489.2920096079789</v>
       </c>
       <c r="N24" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O24" t="n">
         <v>614.4252180716981</v>
@@ -9951,28 +9951,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J27" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K27" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L27" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M27" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O27" t="n">
-        <v>614.4252180716981</v>
+        <v>613.9497439416874</v>
       </c>
       <c r="P27" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q27" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R27" t="n">
         <v>71.01380490566048</v>
@@ -10194,13 +10194,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L30" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M30" t="n">
-        <v>92.38712204931191</v>
+        <v>517.3131487114043</v>
       </c>
       <c r="N30" t="n">
-        <v>447.5171231095471</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O30" t="n">
         <v>614.4252180716981</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>578.5109386733963</v>
+        <v>90.06034685691823</v>
       </c>
       <c r="M33" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N33" t="n">
-        <v>447.5171231095475</v>
+        <v>424.3297954396437</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10662,25 +10662,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J36" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K36" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>578.5109386733963</v>
+        <v>573.7149542682833</v>
       </c>
       <c r="M36" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>85.37211285416666</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P36" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q36" t="n">
         <v>327.7205688679246</v>
@@ -10823,7 +10823,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K38" t="n">
-        <v>505.666843611017</v>
+        <v>505.6668436110179</v>
       </c>
       <c r="L38" t="n">
         <v>651.5514946987026</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,19 +10908,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N39" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P39" t="n">
-        <v>496.801919078302</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q39" t="n">
-        <v>327.7205688679246</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R39" t="n">
         <v>71.01380490566048</v>
@@ -11139,7 +11139,7 @@
         <v>82.44445733333335</v>
       </c>
       <c r="K42" t="n">
-        <v>412.5657697396227</v>
+        <v>112.3087888732267</v>
       </c>
       <c r="L42" t="n">
         <v>578.5109386733963</v>
@@ -11148,7 +11148,7 @@
         <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>447.5171231095475</v>
+        <v>747.7741039759435</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11373,25 +11373,25 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J45" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K45" t="n">
-        <v>412.5657697396227</v>
+        <v>89.59693533333335</v>
       </c>
       <c r="L45" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>726.4998994499999</v>
       </c>
       <c r="N45" t="n">
-        <v>447.5171231095475</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P45" t="n">
-        <v>496.801919078302</v>
+        <v>433.5454285415798</v>
       </c>
       <c r="Q45" t="n">
         <v>327.7205688679246</v>
@@ -23261,13 +23261,13 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>31.97792009466923</v>
       </c>
       <c r="E11" t="n">
-        <v>327.479377239889</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -23276,7 +23276,7 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>65.87543334372789</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>150.1872840214456</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>143.9507637426681</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>267.6074288087849</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>112.2776261096564</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.42475435993876</v>
+        <v>97.42475435993875</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177849</v>
+        <v>82.99846957177847</v>
       </c>
       <c r="E13" t="n">
-        <v>82.9249116246576</v>
+        <v>82.92491162465758</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>43.8913879758175</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>95.49320096681699</v>
       </c>
       <c r="H13" t="n">
-        <v>20.83495650413687</v>
+        <v>82.84545313338903</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456096</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>149.8026281767912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23492,7 +23492,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.411485859551</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -23504,10 +23504,10 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,16 +23546,16 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>85.48574579155689</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750155</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>209.624856560052</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866635</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>97.42475435993876</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177849</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>42.14193655605013</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442487</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>95.493200966817</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.84545313338904</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456097</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,13 +23704,13 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187163</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>191.7385580955907</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.2412393326521</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>822364.5029850334</v>
+        <v>822063.7291781532</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>822364.5029850334</v>
+        <v>822063.7291781532</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>730019.8984019589</v>
+        <v>730019.8984019591</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>730019.898401959</v>
+        <v>730019.8984019589</v>
       </c>
     </row>
     <row r="7">
@@ -26311,40 +26311,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333919</v>
       </c>
       <c r="C2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333919</v>
       </c>
       <c r="D2" t="n">
-        <v>450830.445233392</v>
+        <v>450830.4452333919</v>
       </c>
       <c r="E2" t="n">
-        <v>398397.5585610018</v>
+        <v>398397.5585610019</v>
       </c>
       <c r="F2" t="n">
-        <v>398397.558561002</v>
+        <v>398397.5585610019</v>
       </c>
       <c r="G2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333923</v>
       </c>
       <c r="H2" t="n">
         <v>450830.4452333922</v>
       </c>
       <c r="I2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333923</v>
       </c>
       <c r="J2" t="n">
         <v>450830.4452333915</v>
       </c>
       <c r="K2" t="n">
-        <v>450830.4452333915</v>
+        <v>450830.4452333917</v>
       </c>
       <c r="L2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333925</v>
       </c>
       <c r="M2" t="n">
-        <v>450830.4452333922</v>
+        <v>450830.4452333923</v>
       </c>
       <c r="N2" t="n">
         <v>450830.4452333922</v>
@@ -26353,7 +26353,7 @@
         <v>450830.4452333922</v>
       </c>
       <c r="P2" t="n">
-        <v>450830.4452333921</v>
+        <v>450830.4452333922</v>
       </c>
     </row>
     <row r="3">
@@ -26363,13 +26363,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.948291856</v>
+        <v>173858.6570340547</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062176</v>
+        <v>22558.4295340139</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740445</v>
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.325536682</v>
+        <v>47425.32553668198</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945027</v>
+        <v>200285.864039929</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728546</v>
+        <v>62456.24177539707</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962292</v>
+        <v>43252.52447081127</v>
       </c>
       <c r="N3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277118</v>
+        <v>27767.69404277121</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,10 +26415,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585819</v>
       </c>
       <c r="C4" t="n">
-        <v>178075.8047892384</v>
+        <v>184487.2052585819</v>
       </c>
       <c r="D4" t="n">
         <v>165792.0503172815</v>
@@ -26445,7 +26445,7 @@
         <v>135498.1974718596</v>
       </c>
       <c r="L4" t="n">
-        <v>135242.6235713762</v>
+        <v>135109.2289623214</v>
       </c>
       <c r="M4" t="n">
         <v>134747.7050074764</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481714</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001381</v>
+        <v>65170.06753481714</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26482,13 +26482,13 @@
         <v>53186.01969984052</v>
       </c>
       <c r="G5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="H5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551967</v>
+        <v>58169.76931551966</v>
       </c>
       <c r="J5" t="n">
         <v>63659.04525391951</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173852</v>
+        <v>60823.19813315417</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>23865.39101228378</v>
+        <v>27314.51540593828</v>
       </c>
       <c r="C6" t="n">
-        <v>206070.3393041398</v>
+        <v>201173.1724399928</v>
       </c>
       <c r="D6" t="n">
-        <v>200630.7973283156</v>
+        <v>192894.5081049233</v>
       </c>
       <c r="E6" t="n">
-        <v>146100.1888712225</v>
+        <v>145890.4573245331</v>
       </c>
       <c r="F6" t="n">
-        <v>258222.7503452672</v>
+        <v>258013.0187985776</v>
       </c>
       <c r="G6" t="n">
-        <v>210487.6453737141</v>
+        <v>210487.6453737142</v>
       </c>
       <c r="H6" t="n">
         <v>257912.9709103961</v>
       </c>
       <c r="I6" t="n">
-        <v>257912.9709103961</v>
+        <v>257912.9709103962</v>
       </c>
       <c r="J6" t="n">
-        <v>44871.05331310975</v>
+        <v>51387.33846768342</v>
       </c>
       <c r="K6" t="n">
-        <v>251673.2025076125</v>
+        <v>251673.2025076126</v>
       </c>
       <c r="L6" t="n">
-        <v>196490.6135729921</v>
+        <v>192441.7763625198</v>
       </c>
       <c r="M6" t="n">
-        <v>215712.1414507733</v>
+        <v>214660.4464395849</v>
       </c>
       <c r="N6" t="n">
         <v>257912.9709103961</v>
@@ -26692,7 +26692,7 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>71.07831239473191</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K2" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L2" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26725,7 +26725,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="3">
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26799,37 +26799,37 @@
         <v>776.4890963014441</v>
       </c>
       <c r="F4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="G4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="H4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="I4" t="n">
+        <v>776.4890963014441</v>
+      </c>
+      <c r="J4" t="n">
+        <v>917.0607368443782</v>
+      </c>
+      <c r="K4" t="n">
+        <v>917.0607368443781</v>
+      </c>
+      <c r="L4" t="n">
+        <v>844.4391950293123</v>
+      </c>
+      <c r="M4" t="n">
         <v>776.4890963014442</v>
       </c>
-      <c r="J4" t="n">
-        <v>917.0607368443784</v>
-      </c>
-      <c r="K4" t="n">
-        <v>917.0607368443783</v>
-      </c>
-      <c r="L4" t="n">
-        <v>869.3443530095209</v>
-      </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="O4" t="n">
+        <v>776.4890963014442</v>
+      </c>
+      <c r="P4" t="n">
         <v>776.4890963014441</v>
-      </c>
-      <c r="N4" t="n">
-        <v>776.4890963014441</v>
-      </c>
-      <c r="O4" t="n">
-        <v>776.4890963014441</v>
-      </c>
-      <c r="P4" t="n">
-        <v>776.4890963014442</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660682</v>
+        <v>78.07030221924633</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551355</v>
+        <v>17.58004954287404</v>
       </c>
       <c r="N2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346397</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506583</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773719</v>
+        <v>659.3622249971634</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.2217133240722</v>
+        <v>117.126871304281</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.2816569208525</v>
+        <v>59.28165692085247</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346399</v>
+        <v>34.70961755346401</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485742</v>
+        <v>72.62154181506583</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27382,22 +27382,22 @@
         <v>389.2437464820987</v>
       </c>
       <c r="D2" t="n">
-        <v>381.5867174954989</v>
+        <v>98.57632952213407</v>
       </c>
       <c r="E2" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>315.3888329670773</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27439,10 +27439,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
         <v>392.5258019886049</v>
@@ -27464,16 +27464,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>48.86991870270138</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -27509,7 +27509,7 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>97.85427204747795</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
@@ -27543,7 +27543,7 @@
         <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
         <v>155.7526754391568</v>
@@ -27555,10 +27555,10 @@
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>201.0521148474535</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>124.8917514574867</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y4" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27619,7 +27619,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>381.5867174954989</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>398.5576896346209</v>
@@ -27628,7 +27628,7 @@
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>320.8422199291742</v>
@@ -27664,25 +27664,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S5" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>204.1318830803822</v>
       </c>
       <c r="Y5" t="n">
-        <v>38.27980044427005</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -27692,7 +27692,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>145.521855792294</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -27710,10 +27710,10 @@
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>48.89338144820752</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,13 +27740,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>23.6778726709161</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>133.5813703291298</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>27.91849938626774</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
         <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G7" t="n">
         <v>166.5715133615489</v>
@@ -27792,7 +27792,7 @@
         <v>153.923765528121</v>
       </c>
       <c r="I7" t="n">
-        <v>101.8073144371583</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J7" t="n">
         <v>30.07448747215907</v>
@@ -27825,13 +27825,13 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>233.3618613134482</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>282.5844038405181</v>
+        <v>87.62118754448969</v>
       </c>
       <c r="V7" t="n">
-        <v>263.319551727384</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27850,25 +27850,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>396.4897982542829</v>
+        <v>158.7486747863429</v>
       </c>
       <c r="C8" t="n">
         <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>381.5867174954989</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>164.8484195083599</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>209.6962588720088</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>60.39847475326023</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
@@ -28065,19 +28065,19 @@
         <v>233.3618613134482</v>
       </c>
       <c r="U10" t="n">
-        <v>282.5844038405181</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W10" t="n">
-        <v>280.4970980481341</v>
+        <v>123.269409138885</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473191</v>
+        <v>71.07831239473192</v>
       </c>
     </row>
     <row r="14">
@@ -28743,7 +28743,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J19" t="n">
-        <v>35.71049010668742</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -28752,7 +28752,7 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N19" t="n">
         <v>0</v>
@@ -28764,7 +28764,7 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>130.3599693155844</v>
+        <v>5.636002634529005</v>
       </c>
       <c r="R19" t="n">
         <v>122.6619794737488</v>
@@ -28980,17 +28980,17 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>35.71049010668816</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>28.01250026485259</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
       <c r="N22" t="n">
         <v>0</v>
       </c>
@@ -29004,7 +29004,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29220,28 +29220,28 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="L25" t="n">
         <v>0</v>
       </c>
       <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
+      <c r="R25" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>0</v>
-      </c>
-      <c r="R25" t="n">
-        <v>128.2979821082779</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="M26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O26" t="n">
-        <v>30.27223765901357</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q26" t="n">
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431647</v>
       </c>
     </row>
     <row r="29">
@@ -29509,76 +29509,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>93.99127447431646</v>
+        <v>30.27223765901215</v>
       </c>
       <c r="L29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P29" t="n">
-        <v>30.27223765901277</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y29" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="C31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="D31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="E31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="F31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="H31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="I31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="J31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="K31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="L31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="M31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="N31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="O31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="P31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Q31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="R31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="S31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="T31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="U31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="V31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="W31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="X31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
       <c r="Y31" t="n">
-        <v>93.99127447431646</v>
+        <v>93.99127447431648</v>
       </c>
     </row>
     <row r="32">
@@ -29746,76 +29746,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>86.27291196566841</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>81.10808140892635</v>
       </c>
       <c r="Q32" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="C34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="D34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="E34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="F34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="G34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="H34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="I34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="J34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="K34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="N34" t="n">
-        <v>106.3364573000708</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>18.71446861254421</v>
+        <v>106.8683420224651</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="S34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="T34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="U34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="V34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="W34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="X34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.3364573000708</v>
+        <v>112.7799197727103</v>
       </c>
     </row>
     <row r="35">
@@ -30165,20 +30165,20 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J37" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>0</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="n">
-        <v>28.012500264853</v>
-      </c>
       <c r="O37" t="n">
         <v>0</v>
       </c>
@@ -30189,7 +30189,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S37" t="n">
         <v>130.3599693155844</v>
@@ -30405,7 +30405,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="K40" t="n">
-        <v>28.01250026485259</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -30423,7 +30423,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>28.0125002648524</v>
       </c>
       <c r="R40" t="n">
         <v>130.3599693155844</v>
@@ -30639,16 +30639,16 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
       <c r="M43" t="n">
-        <v>35.71049010668867</v>
+        <v>0</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
@@ -30663,7 +30663,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>122.6619794737488</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S43" t="n">
         <v>130.3599693155844</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y44" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="45">
@@ -30852,28 +30852,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J46" t="n">
         <v>30.07448747215907</v>
@@ -30888,40 +30888,40 @@
         <v>0</v>
       </c>
       <c r="N46" t="n">
-        <v>130.3599693155843</v>
+        <v>0</v>
       </c>
       <c r="O46" t="n">
-        <v>0</v>
+        <v>128.2979821082778</v>
       </c>
       <c r="P46" t="n">
-        <v>5.636002634529973</v>
+        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>122.6619794737488</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="S46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y46" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
   </sheetData>
@@ -34702,19 +34702,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L2" t="n">
-        <v>128.051762226712</v>
+        <v>395.4940631124493</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
       </c>
       <c r="P2" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q2" t="n">
         <v>186.7126870110591</v>
@@ -34778,25 +34778,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>117.9622589983907</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="O3" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>236.7324157120106</v>
+        <v>9.3787569022273</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34939,19 +34939,19 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>543.6957424344376</v>
+        <v>230.5022126169207</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="O5" t="n">
-        <v>68.95436468749639</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P5" t="n">
-        <v>0</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q5" t="n">
         <v>0</v>
@@ -35015,25 +35015,25 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344376</v>
+        <v>518.7905844542292</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>409.7185542589873</v>
+        <v>90.94294915246269</v>
       </c>
       <c r="Q6" t="n">
-        <v>19.7102088845491</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35176,7 +35176,7 @@
         <v>362.6084404317796</v>
       </c>
       <c r="L8" t="n">
-        <v>498.303324968211</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
         <v>551.5160606510915</v>
@@ -35185,10 +35185,10 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>356.0686292865269</v>
       </c>
       <c r="P8" t="n">
-        <v>209.4698418249039</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
         <v>186.7126870110591</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
-        <v>148.7405620940789</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
-        <v>591.4121262692951</v>
+        <v>0</v>
       </c>
       <c r="N9" t="n">
         <v>591.4121262692951</v>
@@ -35267,10 +35267,10 @@
         <v>521.7376591828091</v>
       </c>
       <c r="P9" t="n">
-        <v>0</v>
+        <v>389.1627148536588</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35486,10 +35486,10 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
         <v>488.450591816478</v>
@@ -35498,10 +35498,10 @@
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O12" t="n">
-        <v>486.5023077495127</v>
+        <v>32.81159323632088</v>
       </c>
       <c r="P12" t="n">
         <v>409.7185542589873</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.00382492257284</v>
+        <v>41.00382492257285</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488439</v>
+        <v>74.53507640488441</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,7 +35647,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K14" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L14" t="n">
         <v>498.303324968211</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L15" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>22.71185353989332</v>
+        <v>73.93605315237758</v>
       </c>
       <c r="N15" t="n">
         <v>662.4019911217769</v>
@@ -35960,19 +35960,19 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L18" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>310.6684688643883</v>
       </c>
       <c r="N18" t="n">
-        <v>287.7334829729927</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O18" t="n">
         <v>521.7376591828091</v>
@@ -36039,7 +36039,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>5.636002634528348</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>82.66165768680997</v>
@@ -36048,7 +36048,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M19" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N19" t="n">
         <v>185.0400343749588</v>
@@ -36060,7 +36060,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
-        <v>133.8167333257369</v>
+        <v>9.092766644681488</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M20" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510916</v>
       </c>
       <c r="N20" t="n">
         <v>533.1427107449111</v>
@@ -36200,16 +36200,16 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K21" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>570.8562868639657</v>
       </c>
       <c r="N21" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>521.7376591828091</v>
@@ -36276,16 +36276,16 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K22" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L22" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36300,7 +36300,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.697989841835579</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36434,19 +36434,19 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>396.904887558667</v>
       </c>
       <c r="N24" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O24" t="n">
         <v>521.7376591828091</v>
@@ -36516,13 +36516,13 @@
         <v>0</v>
       </c>
       <c r="K25" t="n">
-        <v>82.66165768680997</v>
+        <v>210.9596397950879</v>
       </c>
       <c r="L25" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M25" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
         <v>185.0400343749588</v>
@@ -36537,7 +36537,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529095</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,13 +36592,13 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004054</v>
+        <v>240.1021562004055</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
       </c>
       <c r="L26" t="n">
-        <v>592.2945994425274</v>
+        <v>528.5755626272231</v>
       </c>
       <c r="M26" t="n">
         <v>645.507335125408</v>
@@ -36607,16 +36607,16 @@
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>474.7566830047999</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P26" t="n">
-        <v>351.7045375065877</v>
+        <v>445.6958119809042</v>
       </c>
       <c r="Q26" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R26" t="n">
-        <v>56.37828989698318</v>
+        <v>56.37828989698319</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K27" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O27" t="n">
-        <v>521.7376591828091</v>
+        <v>521.2621850527985</v>
       </c>
       <c r="P27" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q27" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215738</v>
+        <v>63.9167870021574</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
@@ -36771,7 +36771,7 @@
         <v>215.0783106122746</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446895</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>240.1021562004054</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K29" t="n">
-        <v>456.5997149060961</v>
+        <v>392.8806780907918</v>
       </c>
       <c r="L29" t="n">
         <v>592.2945994425274</v>
@@ -36841,19 +36841,19 @@
         <v>645.507335125408</v>
       </c>
       <c r="N29" t="n">
-        <v>533.1427107449111</v>
+        <v>627.1339852192276</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
       </c>
       <c r="P29" t="n">
-        <v>381.9767751656005</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>280.7039614853756</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>56.3782898969832</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,13 +36914,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L30" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>424.9260266620924</v>
       </c>
       <c r="N30" t="n">
-        <v>362.1450102553805</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O30" t="n">
         <v>521.7376591828091</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>63.91678700215738</v>
+        <v>63.91678700215741</v>
       </c>
       <c r="K31" t="n">
         <v>176.6529321611264</v>
@@ -37005,10 +37005,10 @@
         <v>258.3395240113953</v>
       </c>
       <c r="P31" t="n">
-        <v>215.0783106122746</v>
+        <v>215.0783106122747</v>
       </c>
       <c r="Q31" t="n">
-        <v>97.44803848446894</v>
+        <v>97.44803848446897</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37069,28 +37069,28 @@
         <v>146.110881726089</v>
       </c>
       <c r="K32" t="n">
-        <v>468.9448977318504</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L32" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>637.7889726167599</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N32" t="n">
         <v>533.1427107449111</v>
       </c>
       <c r="O32" t="n">
-        <v>444.4844453457863</v>
+        <v>557.2643651184967</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>432.8126189155141</v>
       </c>
       <c r="Q32" t="n">
-        <v>293.0491443111299</v>
+        <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.7234727227375</v>
+        <v>75.16693519537706</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>488.450591816478</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N33" t="n">
-        <v>362.1450102553808</v>
+        <v>338.9576825854771</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,25 +37224,25 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>76.26196982791171</v>
+        <v>82.70543230055128</v>
       </c>
       <c r="K34" t="n">
-        <v>188.9981149868808</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L34" t="n">
-        <v>272.1219521220908</v>
+        <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.5097687528627</v>
+        <v>300.9532312255023</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750296</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>183.0627181496231</v>
+        <v>271.2165915595439</v>
       </c>
       <c r="P34" t="n">
-        <v>121.0870361379582</v>
+        <v>233.8669559106685</v>
       </c>
       <c r="Q34" t="n">
         <v>3.456764010152483</v>
@@ -37382,25 +37382,25 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K36" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>488.450591816478</v>
+        <v>483.6546074113651</v>
       </c>
       <c r="M36" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P36" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>236.7324157120106</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>82.66165768680997</v>
@@ -37473,7 +37473,7 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N37" t="n">
-        <v>213.0525346398118</v>
+        <v>315.4000036905431</v>
       </c>
       <c r="O37" t="n">
         <v>164.3482495370789</v>
@@ -37485,7 +37485,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R37" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -37543,7 +37543,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K38" t="n">
-        <v>362.6084404317796</v>
+        <v>362.6084404317805</v>
       </c>
       <c r="L38" t="n">
         <v>498.303324968211</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,19 +37628,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P39" t="n">
-        <v>409.7185542589873</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q39" t="n">
-        <v>236.7324157120106</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>100.2854818434253</v>
       </c>
       <c r="K40" t="n">
-        <v>110.6741579516626</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
@@ -37719,7 +37719,7 @@
         <v>121.0870361379582</v>
       </c>
       <c r="Q40" t="n">
-        <v>3.456764010152483</v>
+        <v>31.46926427500488</v>
       </c>
       <c r="R40" t="n">
         <v>7.697989841835579</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>322.9688344062893</v>
+        <v>22.71185353989334</v>
       </c>
       <c r="L42" t="n">
         <v>488.450591816478</v>
@@ -37868,7 +37868,7 @@
         <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>362.1450102553808</v>
+        <v>662.4019911217769</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37935,16 +37935,16 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>82.66165768680997</v>
       </c>
       <c r="L43" t="n">
-        <v>165.78549482202</v>
+        <v>296.1454641376043</v>
       </c>
       <c r="M43" t="n">
-        <v>223.8838015594806</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
@@ -37959,7 +37959,7 @@
         <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -38093,25 +38093,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K45" t="n">
-        <v>322.9688344062893</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>634.1127774006881</v>
       </c>
       <c r="N45" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P45" t="n">
-        <v>409.7185542589873</v>
+        <v>346.4620637222652</v>
       </c>
       <c r="Q45" t="n">
         <v>236.7324157120106</v>
@@ -38184,19 +38184,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>315.4000036905431</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O46" t="n">
-        <v>164.3482495370789</v>
+        <v>292.6462316453567</v>
       </c>
       <c r="P46" t="n">
-        <v>126.7230387724881</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>7.697989841835579</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
